--- a/tests/files/import_attainments_non_existing_education_level.xlsx
+++ b/tests/files/import_attainments_non_existing_education_level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GM/Code/test-correct/tests/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C59F4F-C2A5-9141-9A31-C13CED35368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB09EAD-63D8-B440-91CA-E2A6EBC29801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{8D80483A-517E-4D4B-A5DE-468943674C88}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="425">
   <si>
     <t>Table 1</t>
   </si>
@@ -13228,7 +13228,7 @@
   <dimension ref="A1:P354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13285,7 +13285,9 @@
       <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="19" t="s">
         <v>10</v>
       </c>
